--- a/characteristic data/Pressure Sensor Calibration AIO Data/fill_test_feb3.xlsx
+++ b/characteristic data/Pressure Sensor Calibration AIO Data/fill_test_feb3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SmithCA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SmithCA\Documents\GitHub\DHEC-Stage-Sensor\characteristic data\Pressure Sensor Calibration AIO Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6A8B1C-0639-41B1-83A5-DF7DB007F2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8909AA-8E93-4D7E-A52C-1A7A2881D249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
